--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fbln1</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07741733333333332</v>
+        <v>0.1919306666666667</v>
       </c>
       <c r="H2">
-        <v>0.232252</v>
+        <v>0.575792</v>
       </c>
       <c r="I2">
-        <v>0.001631933472270046</v>
+        <v>0.004053148510572174</v>
       </c>
       <c r="J2">
-        <v>0.001631933472270046</v>
+        <v>0.004053148510572173</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>7.660191514149333</v>
+        <v>32.26543123330489</v>
       </c>
       <c r="R2">
-        <v>68.94172362734399</v>
+        <v>290.388881099744</v>
       </c>
       <c r="S2">
-        <v>0.0003423812243137376</v>
+        <v>0.001209533387442041</v>
       </c>
       <c r="T2">
-        <v>0.0003423812243137377</v>
+        <v>0.001209533387442041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07741733333333332</v>
+        <v>0.1919306666666667</v>
       </c>
       <c r="H3">
-        <v>0.232252</v>
+        <v>0.575792</v>
       </c>
       <c r="I3">
-        <v>0.001631933472270046</v>
+        <v>0.004053148510572174</v>
       </c>
       <c r="J3">
-        <v>0.001631933472270046</v>
+        <v>0.004053148510572173</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>12.61950808201822</v>
+        <v>31.28589548232711</v>
       </c>
       <c r="R3">
-        <v>113.575572738164</v>
+        <v>281.573059340944</v>
       </c>
       <c r="S3">
-        <v>0.0005640436821165194</v>
+        <v>0.001172813556040012</v>
       </c>
       <c r="T3">
-        <v>0.0005640436821165196</v>
+        <v>0.001172813556040012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07741733333333332</v>
+        <v>0.1919306666666667</v>
       </c>
       <c r="H4">
-        <v>0.232252</v>
+        <v>0.575792</v>
       </c>
       <c r="I4">
-        <v>0.001631933472270046</v>
+        <v>0.004053148510572174</v>
       </c>
       <c r="J4">
-        <v>0.001631933472270046</v>
+        <v>0.004053148510572173</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>11.16921519047555</v>
+        <v>31.85924887525333</v>
       </c>
       <c r="R4">
-        <v>100.52293671428</v>
+        <v>286.73323987728</v>
       </c>
       <c r="S4">
-        <v>0.0004992211440764857</v>
+        <v>0.001194306839874744</v>
       </c>
       <c r="T4">
-        <v>0.0004992211440764858</v>
+        <v>0.001194306839874744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07741733333333332</v>
+        <v>0.1919306666666667</v>
       </c>
       <c r="H5">
-        <v>0.232252</v>
+        <v>0.575792</v>
       </c>
       <c r="I5">
-        <v>0.001631933472270046</v>
+        <v>0.004053148510572174</v>
       </c>
       <c r="J5">
-        <v>0.001631933472270046</v>
+        <v>0.004053148510572173</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>5.062792188515556</v>
+        <v>12.71094127175289</v>
       </c>
       <c r="R5">
-        <v>45.56512969664001</v>
+        <v>114.398471445776</v>
       </c>
       <c r="S5">
-        <v>0.0002262874217633028</v>
+        <v>0.0004764947272153772</v>
       </c>
       <c r="T5">
-        <v>0.0002262874217633029</v>
+        <v>0.0004764947272153771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>129.741886</v>
       </c>
       <c r="I6">
-        <v>0.9116396264352705</v>
+        <v>0.9132866243360881</v>
       </c>
       <c r="J6">
-        <v>0.9116396264352705</v>
+        <v>0.9132866243360879</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>4279.178195093821</v>
+        <v>7270.295351120339</v>
       </c>
       <c r="R6">
-        <v>38512.60375584439</v>
+        <v>65432.65816008305</v>
       </c>
       <c r="S6">
-        <v>0.1912628772774976</v>
+        <v>0.2725413740842165</v>
       </c>
       <c r="T6">
-        <v>0.1912628772774977</v>
+        <v>0.2725413740842165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>129.741886</v>
       </c>
       <c r="I7">
-        <v>0.9116396264352705</v>
+        <v>0.9132866243360881</v>
       </c>
       <c r="J7">
-        <v>0.9116396264352705</v>
+        <v>0.9132866243360879</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>7049.578815051267</v>
@@ -883,10 +883,10 @@
         <v>63446.2093354614</v>
       </c>
       <c r="S7">
-        <v>0.3150891751381332</v>
+        <v>0.264267378996231</v>
       </c>
       <c r="T7">
-        <v>0.3150891751381332</v>
+        <v>0.264267378996231</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>129.741886</v>
       </c>
       <c r="I8">
-        <v>0.9116396264352705</v>
+        <v>0.9132866243360881</v>
       </c>
       <c r="J8">
-        <v>0.9116396264352705</v>
+        <v>0.9132866243360879</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>6239.408246009282</v>
+        <v>7178.771215332526</v>
       </c>
       <c r="R8">
-        <v>56154.67421408354</v>
+        <v>64608.94093799274</v>
       </c>
       <c r="S8">
-        <v>0.2788776534262826</v>
+        <v>0.2691104111693967</v>
       </c>
       <c r="T8">
-        <v>0.2788776534262826</v>
+        <v>0.2691104111693966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>129.741886</v>
       </c>
       <c r="I9">
-        <v>0.9116396264352705</v>
+        <v>0.9132866243360881</v>
       </c>
       <c r="J9">
-        <v>0.9116396264352705</v>
+        <v>0.9132866243360879</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>2828.204738663503</v>
+        <v>2864.127138675874</v>
       </c>
       <c r="R9">
-        <v>25453.84264797152</v>
+        <v>25777.14424808286</v>
       </c>
       <c r="S9">
-        <v>0.126409920593357</v>
+        <v>0.1073674600862439</v>
       </c>
       <c r="T9">
-        <v>0.1264099205933571</v>
+        <v>0.1073674600862439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.114312666666667</v>
+        <v>3.905830333333333</v>
       </c>
       <c r="H10">
-        <v>12.342938</v>
+        <v>11.717491</v>
       </c>
       <c r="I10">
-        <v>0.08672844009245946</v>
+        <v>0.0824824436502988</v>
       </c>
       <c r="J10">
-        <v>0.08672844009245947</v>
+        <v>0.08248244365029879</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>407.0977598783707</v>
+        <v>656.6084629299623</v>
       </c>
       <c r="R10">
-        <v>3663.879838905336</v>
+        <v>5909.476166369661</v>
       </c>
       <c r="S10">
-        <v>0.01819571079718821</v>
+        <v>0.02461426449403887</v>
       </c>
       <c r="T10">
-        <v>0.01819571079718822</v>
+        <v>0.02461426449403887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.114312666666667</v>
+        <v>3.905830333333333</v>
       </c>
       <c r="H11">
-        <v>12.342938</v>
+        <v>11.717491</v>
       </c>
       <c r="I11">
-        <v>0.08672844009245946</v>
+        <v>0.0824824436502988</v>
       </c>
       <c r="J11">
-        <v>0.08672844009245947</v>
+        <v>0.08248244365029879</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>670.6586201490185</v>
+        <v>636.6746997893484</v>
       </c>
       <c r="R11">
-        <v>6035.927581341166</v>
+        <v>5730.072298104136</v>
       </c>
       <c r="S11">
-        <v>0.02997587188767334</v>
+        <v>0.02386700802994282</v>
       </c>
       <c r="T11">
-        <v>0.02997587188767335</v>
+        <v>0.02386700802994281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.114312666666667</v>
+        <v>3.905830333333333</v>
       </c>
       <c r="H12">
-        <v>12.342938</v>
+        <v>11.717491</v>
       </c>
       <c r="I12">
-        <v>0.08672844009245946</v>
+        <v>0.0824824436502988</v>
       </c>
       <c r="J12">
-        <v>0.08672844009245947</v>
+        <v>0.08248244365029879</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>593.5833947810911</v>
+        <v>648.3425646110766</v>
       </c>
       <c r="R12">
-        <v>5342.25055302982</v>
+        <v>5835.08308149969</v>
       </c>
       <c r="S12">
-        <v>0.02653090449005877</v>
+        <v>0.02430440097721182</v>
       </c>
       <c r="T12">
-        <v>0.02653090449005878</v>
+        <v>0.02430440097721182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.905830333333333</v>
+      </c>
+      <c r="H13">
+        <v>11.717491</v>
+      </c>
+      <c r="I13">
+        <v>0.0824824436502988</v>
+      </c>
+      <c r="J13">
+        <v>0.08248244365029879</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>66.22673433333334</v>
+      </c>
+      <c r="N13">
+        <v>198.680203</v>
+      </c>
+      <c r="O13">
+        <v>0.1175616254801657</v>
+      </c>
+      <c r="P13">
+        <v>0.1175616254801657</v>
+      </c>
+      <c r="Q13">
+        <v>258.6703878367414</v>
+      </c>
+      <c r="R13">
+        <v>2328.033490530673</v>
+      </c>
+      <c r="S13">
+        <v>0.009696770149105296</v>
+      </c>
+      <c r="T13">
+        <v>0.009696770149105294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.114312666666667</v>
-      </c>
-      <c r="H13">
-        <v>12.342938</v>
-      </c>
-      <c r="I13">
-        <v>0.08672844009245946</v>
-      </c>
-      <c r="J13">
-        <v>0.08672844009245947</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>65.39610666666668</v>
-      </c>
-      <c r="N13">
-        <v>196.18832</v>
-      </c>
-      <c r="O13">
-        <v>0.1386621609326595</v>
-      </c>
-      <c r="P13">
-        <v>0.1386621609326595</v>
-      </c>
-      <c r="Q13">
-        <v>269.0600300093512</v>
-      </c>
-      <c r="R13">
-        <v>2421.540270084161</v>
-      </c>
-      <c r="S13">
-        <v>0.01202595291753913</v>
-      </c>
-      <c r="T13">
-        <v>0.01202595291753913</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.008418666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.025256</v>
+      </c>
+      <c r="I14">
+        <v>0.0001777835030410475</v>
+      </c>
+      <c r="J14">
+        <v>0.0001777835030410475</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>168.1098273333333</v>
+      </c>
+      <c r="N14">
+        <v>504.329482</v>
+      </c>
+      <c r="O14">
+        <v>0.2984182258032519</v>
+      </c>
+      <c r="P14">
+        <v>0.298418225803252</v>
+      </c>
+      <c r="Q14">
+        <v>1.415260599710222</v>
+      </c>
+      <c r="R14">
+        <v>12.737345397392</v>
+      </c>
+      <c r="S14">
+        <v>5.305383755459644E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.305383755459645E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.008418666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.025256</v>
+      </c>
+      <c r="I15">
+        <v>0.0001777835030410475</v>
+      </c>
+      <c r="J15">
+        <v>0.0001777835030410475</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N15">
+        <v>489.018707</v>
+      </c>
+      <c r="O15">
+        <v>0.2893586437755394</v>
+      </c>
+      <c r="P15">
+        <v>0.2893586437755394</v>
+      </c>
+      <c r="Q15">
+        <v>1.372295162665778</v>
+      </c>
+      <c r="R15">
+        <v>12.350656463992</v>
+      </c>
+      <c r="S15">
+        <v>5.144319332562199E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.144319332562199E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.008418666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.025256</v>
+      </c>
+      <c r="I16">
+        <v>0.0001777835030410475</v>
+      </c>
+      <c r="J16">
+        <v>0.0001777835030410475</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>165.99353</v>
+      </c>
+      <c r="N16">
+        <v>497.98059</v>
+      </c>
+      <c r="O16">
+        <v>0.294661504941043</v>
+      </c>
+      <c r="P16">
+        <v>0.294661504941043</v>
+      </c>
+      <c r="Q16">
+        <v>1.397444197893333</v>
+      </c>
+      <c r="R16">
+        <v>12.57699778104</v>
+      </c>
+      <c r="S16">
+        <v>5.238595455976555E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.238595455976555E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.008418666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.025256</v>
+      </c>
+      <c r="I17">
+        <v>0.0001777835030410475</v>
+      </c>
+      <c r="J17">
+        <v>0.0001777835030410475</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>66.22673433333334</v>
+      </c>
+      <c r="N17">
+        <v>198.680203</v>
+      </c>
+      <c r="O17">
+        <v>0.1175616254801657</v>
+      </c>
+      <c r="P17">
+        <v>0.1175616254801657</v>
+      </c>
+      <c r="Q17">
+        <v>0.5575408007742223</v>
+      </c>
+      <c r="R17">
+        <v>5.017867206968</v>
+      </c>
+      <c r="S17">
+        <v>2.090051760106352E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.090051760106352E-05</v>
       </c>
     </row>
   </sheetData>
